--- a/output/Haiti_aggregated.xlsx
+++ b/output/Haiti_aggregated.xlsx
@@ -20,259 +20,259 @@
     <t xml:space="preserve">amountUSD</t>
   </si>
   <si>
+    <t xml:space="preserve">Switzerland, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walmart Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct Relief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private (individuals &amp; organizations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FedEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PepsiCo Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Union Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar Charity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein, Government of</t>
+  </si>
+  <si>
     <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
   </si>
   <si>
-    <t xml:space="preserve">United States of America, Government of</t>
+    <t xml:space="preserve">Central Emergency Response Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accion Contra el Hambre - Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Vision Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Vision Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Bank of Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Fund for UNICEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Korea (Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, Republic of, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mastercard Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">World Food Programme</t>
   </si>
   <si>
+    <t xml:space="preserve">Finland, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Solidarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPS Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Population Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friends of UNFPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Box Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaco, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office for the Coordination of Humanitarian Affairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Organization for Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana, Government of</t>
+  </si>
+  <si>
     <t xml:space="preserve">Food &amp; Agriculture Organization of the United Nations</t>
   </si>
   <si>
-    <t xml:space="preserve">Germany, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private (individuals &amp; organizations)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Commission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France, Government of</t>
+    <t xml:space="preserve">Belgium, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Development Programme</t>
   </si>
   <si>
     <t xml:space="preserve">World Jewish Relief</t>
   </si>
   <si>
-    <t xml:space="preserve">Central Emergency Response Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walmart Foundation</t>
+    <t xml:space="preserve">Medicor Foundation</t>
   </si>
   <si>
     <t xml:space="preserve">Starbucks Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Union Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Lucia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direct Relief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Nations Population Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monaco, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPS Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FedEx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mastercard Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Bank of Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PepsiCo Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Nations Development Programme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Fund for UNICEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar Charity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Organization for Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicor Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accion Contra el Hambre - Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea, Republic of, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friends of UNFPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Vision Taiwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Vision Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office for the Coordination of Humanitarian Affairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Korea (Republic of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Czech Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baby Box Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Andorra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Arab Emirates, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UN Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swiss Solidarity</t>
   </si>
   <si>
     <t xml:space="preserve">Nuestros Pequeños Hermanos</t>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>31867844</v>
+        <v>12207540</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>133652732</v>
+        <v>5047309</v>
       </c>
     </row>
     <row r="4">
@@ -636,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2600804</v>
+        <v>133652732</v>
       </c>
     </row>
     <row r="5">
@@ -652,7 +652,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>27975629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,7 +660,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>10445383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -668,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>2324258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>9386422</v>
+        <v>5107592</v>
       </c>
     </row>
     <row r="10">
@@ -684,7 +684,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1245089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -692,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>5107592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -700,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>12207540</v>
+        <v>30482351</v>
       </c>
     </row>
     <row r="13">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1548873</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="14">
@@ -716,7 +716,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1352660</v>
+        <v>1245089</v>
       </c>
     </row>
     <row r="15">
@@ -724,7 +724,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>30482351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -732,7 +732,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>1121076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>252274</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="18">
@@ -748,7 +748,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -756,7 +756,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>375400</v>
+        <v>56962</v>
       </c>
     </row>
     <row r="20">
@@ -764,7 +764,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>1305563</v>
+        <v>252274</v>
       </c>
     </row>
     <row r="21">
@@ -772,7 +772,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>5047309</v>
+        <v>31867844</v>
       </c>
     </row>
     <row r="22">
@@ -780,7 +780,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>8952678</v>
+        <v>20318394</v>
       </c>
     </row>
     <row r="23">
@@ -788,7 +788,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>32510</v>
+        <v>10445383</v>
       </c>
     </row>
     <row r="24">
@@ -796,7 +796,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>20318394</v>
+        <v>2324258</v>
       </c>
     </row>
     <row r="25">
@@ -804,7 +804,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>1900391</v>
+        <v>928221</v>
       </c>
     </row>
     <row r="26">
@@ -812,7 +812,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>50000</v>
+        <v>27975629</v>
       </c>
     </row>
     <row r="27">
@@ -820,7 +820,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>500000</v>
+        <v>284562</v>
       </c>
     </row>
     <row r="28">
@@ -828,7 +828,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>25000</v>
+        <v>346196</v>
       </c>
     </row>
     <row r="29">
@@ -836,7 +836,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>25000</v>
+        <v>375400</v>
       </c>
     </row>
     <row r="30">
@@ -844,7 +844,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>55188</v>
+        <v>1305563</v>
       </c>
     </row>
     <row r="31">
@@ -852,7 +852,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>8952678</v>
       </c>
     </row>
     <row r="32">
@@ -860,7 +860,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>323866</v>
       </c>
     </row>
     <row r="33">
@@ -868,7 +868,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>323866</v>
+        <v>163501</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>163501</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +884,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1237968</v>
       </c>
     </row>
     <row r="36">
@@ -892,7 +892,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>9386422</v>
       </c>
     </row>
     <row r="37">
@@ -900,7 +900,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>21858</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="38">
@@ -908,7 +908,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>3778688</v>
+        <v>1548873</v>
       </c>
     </row>
     <row r="39">
@@ -916,7 +916,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1121076</v>
       </c>
     </row>
     <row r="40">
@@ -924,7 +924,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>255880</v>
+        <v>1900391</v>
       </c>
     </row>
     <row r="41">
@@ -932,7 +932,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>60109</v>
+        <v>354610</v>
       </c>
     </row>
     <row r="42">
@@ -940,7 +940,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>25000</v>
+        <v>172015</v>
       </c>
     </row>
     <row r="43">
@@ -948,7 +948,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>50000</v>
+        <v>54348</v>
       </c>
     </row>
     <row r="44">
@@ -956,7 +956,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>27174</v>
+        <v>718094</v>
       </c>
     </row>
     <row r="45">
@@ -964,7 +964,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>193388</v>
+        <v>824358</v>
       </c>
     </row>
     <row r="46">
@@ -972,7 +972,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>100000</v>
+        <v>15063</v>
       </c>
     </row>
     <row r="47">
@@ -980,7 +980,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>100000</v>
+        <v>2810410</v>
       </c>
     </row>
     <row r="48">
@@ -988,7 +988,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>1237968</v>
+        <v>2465158</v>
       </c>
     </row>
     <row r="49">
@@ -996,7 +996,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>845002</v>
       </c>
     </row>
     <row r="50">
@@ -1004,7 +1004,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>100000</v>
+        <v>1352660</v>
       </c>
     </row>
     <row r="51">
@@ -1012,7 +1012,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>50000</v>
+        <v>51362</v>
       </c>
     </row>
     <row r="52">
@@ -1020,7 +1020,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>28676</v>
       </c>
     </row>
     <row r="53">
@@ -1028,7 +1028,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>354610</v>
+        <v>31095</v>
       </c>
     </row>
     <row r="54">
@@ -1036,7 +1036,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>500000</v>
+        <v>10949</v>
       </c>
     </row>
     <row r="55">
@@ -1044,7 +1044,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>172015</v>
+        <v>11792</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>54348</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="57">
@@ -1060,7 +1060,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>718094</v>
+        <v>21858</v>
       </c>
     </row>
     <row r="58">
@@ -1068,7 +1068,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>824358</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="59">
@@ -1076,7 +1076,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>15063</v>
+        <v>54645</v>
       </c>
     </row>
     <row r="60">
@@ -1084,7 +1084,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>2810410</v>
+        <v>1230593</v>
       </c>
     </row>
     <row r="61">
@@ -1092,7 +1092,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>2465158</v>
+        <v>2600804</v>
       </c>
     </row>
     <row r="62">
@@ -1100,7 +1100,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>845002</v>
+        <v>68370</v>
       </c>
     </row>
     <row r="63">
@@ -1108,7 +1108,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="64">
@@ -1116,7 +1116,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>54645</v>
+        <v>4024426</v>
       </c>
     </row>
     <row r="65">
@@ -1124,7 +1124,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>800000</v>
+        <v>193388</v>
       </c>
     </row>
     <row r="66">
@@ -1132,7 +1132,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>56962</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="67">
@@ -1140,7 +1140,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>10319</v>
+        <v>255880</v>
       </c>
     </row>
     <row r="68">
@@ -1148,7 +1148,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>689792</v>
+        <v>1210733</v>
       </c>
     </row>
     <row r="69">
@@ -1156,7 +1156,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>1230593</v>
+        <v>112500</v>
       </c>
     </row>
     <row r="70">
@@ -1164,7 +1164,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>68370</v>
+        <v>99997</v>
       </c>
     </row>
     <row r="71">
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>240000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="72">
@@ -1180,7 +1180,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>928221</v>
+        <v>60109</v>
       </c>
     </row>
     <row r="73">
@@ -1188,7 +1188,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>200000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="74">
@@ -1196,7 +1196,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>1210733</v>
+        <v>55188</v>
       </c>
     </row>
     <row r="75">
@@ -1204,7 +1204,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>284562</v>
+        <v>27174</v>
       </c>
     </row>
     <row r="76">
@@ -1212,7 +1212,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>346196</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="77">
@@ -1220,7 +1220,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>66696</v>
+        <v>10319</v>
       </c>
     </row>
     <row r="78">
@@ -1228,7 +1228,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>51362</v>
+        <v>66696</v>
       </c>
     </row>
     <row r="79">
@@ -1236,7 +1236,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>28676</v>
+        <v>689792</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>31095</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="81">
@@ -1252,7 +1252,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>10949</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="82">
@@ -1260,7 +1260,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>112500</v>
+        <v>3778688</v>
       </c>
     </row>
     <row r="83">
@@ -1268,7 +1268,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>11792</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="84">
@@ -1276,7 +1276,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>400000</v>
+        <v>32510</v>
       </c>
     </row>
     <row r="85">
@@ -1284,7 +1284,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>99997</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>4024426</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="87">
